--- a/bom/HammerHeadAFEBOM.xlsx
+++ b/bom/HammerHeadAFEBOM.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="132" windowWidth="8580" windowHeight="6456"/>
+    <workbookView xWindow="195" yWindow="135" windowWidth="8580" windowHeight="6450"/>
   </bookViews>
   <sheets>
     <sheet name="HammerHeadAFE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
@@ -213,21 +213,20 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="MS Sans Serif"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="MS Sans Serif"/>
       <family val="2"/>
     </font>
@@ -247,7 +246,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
+        <fgColor indexed="23"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,21 +616,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="62.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -921,7 +920,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="21.6">
+    <row r="9" spans="1:11" ht="22.5">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -993,7 +992,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="21.6">
+    <row r="11" spans="1:11" ht="22.5">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -1043,6 +1042,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
